--- a/excel_with_subclasses/without_zeros/watercourse_with_count_without_zeros.xlsx
+++ b/excel_with_subclasses/without_zeros/watercourse_with_count_without_zeros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="121">
   <si>
     <t>subclass</t>
   </si>
@@ -25,7 +25,7 @@
     <t>class</t>
   </si>
   <si>
-    <t>count_P31</t>
+    <t>signifance</t>
   </si>
   <si>
     <t>Q47521</t>
@@ -46,12 +46,6 @@
     <t>Q695793</t>
   </si>
   <si>
-    <t>Q88480</t>
-  </si>
-  <si>
-    <t>Q63565252</t>
-  </si>
-  <si>
     <t>Q474</t>
   </si>
   <si>
@@ -115,12 +109,12 @@
     <t>Q15842515</t>
   </si>
   <si>
+    <t>Q30158320</t>
+  </si>
+  <si>
     <t>Q55470128</t>
   </si>
   <si>
-    <t>Q30158320</t>
-  </si>
-  <si>
     <t>Q28109822</t>
   </si>
   <si>
@@ -151,39 +145,39 @@
     <t>Q2890064</t>
   </si>
   <si>
+    <t>Q1844833</t>
+  </si>
+  <si>
     <t>Q4250086</t>
   </si>
   <si>
-    <t>Q1844833</t>
-  </si>
-  <si>
     <t>Q803749</t>
   </si>
   <si>
     <t>Q1427694</t>
   </si>
   <si>
+    <t>Q8026426</t>
+  </si>
+  <si>
     <t>Q5068817</t>
   </si>
   <si>
+    <t>Q83287935</t>
+  </si>
+  <si>
+    <t>Q12099220</t>
+  </si>
+  <si>
     <t>Q911608</t>
   </si>
   <si>
-    <t>Q12099220</t>
-  </si>
-  <si>
-    <t>Q8026426</t>
-  </si>
-  <si>
-    <t>Q83287935</t>
+    <t>Q2929728</t>
   </si>
   <si>
     <t>Q14556915</t>
   </si>
   <si>
-    <t>Q2929728</t>
-  </si>
-  <si>
     <t>Q735485</t>
   </si>
   <si>
@@ -208,12 +202,6 @@
     <t>речной порог</t>
   </si>
   <si>
-    <t>Ров</t>
-  </si>
-  <si>
-    <t>ручей</t>
-  </si>
-  <si>
     <t>акведук</t>
   </si>
   <si>
@@ -271,12 +259,12 @@
     <t>rivulet</t>
   </si>
   <si>
+    <t>creek</t>
+  </si>
+  <si>
     <t>intermittent oxbow lake</t>
   </si>
   <si>
-    <t>creek</t>
-  </si>
-  <si>
     <t>sewerage aqueduct</t>
   </si>
   <si>
@@ -307,39 +295,39 @@
     <t>ditch</t>
   </si>
   <si>
+    <t>Перекат</t>
+  </si>
+  <si>
     <t>nullah</t>
   </si>
   <si>
-    <t>Перекат</t>
-  </si>
-  <si>
     <t>Биллабонг</t>
   </si>
   <si>
     <t>Fleet</t>
   </si>
   <si>
+    <t>winterbourne</t>
+  </si>
+  <si>
     <t>chalk stream</t>
   </si>
   <si>
+    <t>back channel</t>
+  </si>
+  <si>
+    <t>горная река</t>
+  </si>
+  <si>
     <t>fiumara</t>
   </si>
   <si>
-    <t>горная река</t>
-  </si>
-  <si>
-    <t>winterbourne</t>
-  </si>
-  <si>
-    <t>back channel</t>
+    <t>glacial stream</t>
   </si>
   <si>
     <t>leat</t>
   </si>
   <si>
-    <t>glacial stream</t>
-  </si>
-  <si>
     <t>mountain stream</t>
   </si>
   <si>
@@ -358,28 +346,28 @@
     <t>Q2935978_irrigation canal</t>
   </si>
   <si>
+    <t>Q18870689_акведук</t>
+  </si>
+  <si>
+    <t>Q180537_меандр</t>
+  </si>
+  <si>
+    <t>Q55659107_intermittent natural watercourse</t>
+  </si>
+  <si>
+    <t>Q8261440_канал для транспортировки воды</t>
+  </si>
+  <si>
+    <t>Q474_акведук</t>
+  </si>
+  <si>
     <t>Q2048319_канава</t>
   </si>
   <si>
+    <t>Q373315_балка,Q55659107_intermittent natural watercourse</t>
+  </si>
+  <si>
     <t>Q47521_поток</t>
-  </si>
-  <si>
-    <t>Q18870689_акведук</t>
-  </si>
-  <si>
-    <t>Q180537_меандр</t>
-  </si>
-  <si>
-    <t>Q55659107_intermittent natural watercourse</t>
-  </si>
-  <si>
-    <t>Q8261440_канал для транспортировки воды</t>
-  </si>
-  <si>
-    <t>Q474_акведук</t>
-  </si>
-  <si>
-    <t>Q373315_балка,Q55659107_intermittent natural watercourse</t>
   </si>
   <si>
     <t>Q209333_Старица</t>
@@ -746,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -771,13 +759,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2">
-        <v>124709</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -785,13 +770,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3">
-        <v>66671</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -799,13 +781,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4">
-        <v>18059</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -813,13 +792,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5">
-        <v>13593</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -827,13 +803,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6">
-        <v>1147</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -841,13 +814,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7">
-        <v>988</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -855,13 +825,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8">
-        <v>871</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -869,13 +836,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9">
-        <v>835</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -883,13 +847,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10">
-        <v>715</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -897,13 +858,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11">
-        <v>308</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -911,13 +869,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12">
-        <v>291</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -925,13 +880,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13">
-        <v>268</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -939,13 +891,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14">
-        <v>218</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -953,13 +902,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15">
-        <v>161</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -967,559 +913,417 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
         <v>114</v>
       </c>
-      <c r="D26">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
-      </c>
-      <c r="D37">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
-      </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" t="s">
-        <v>113</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
